--- a/QA32testgit.xlsx
+++ b/QA32testgit.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21231"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2E2F695-552E-4164-AFE0-818C14079992}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BEE1F568-0E28-418F-9A8F-C5FF456354D2}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -332,10 +332,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:A2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -345,6 +345,11 @@
         <v>1</v>
       </c>
     </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>2</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/QA32testgit.xlsx
+++ b/QA32testgit.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21231"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BEE1F568-0E28-418F-9A8F-C5FF456354D2}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{039E9348-F53F-4D5B-8A22-6F0439B98BCC}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -332,10 +332,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:A2"/>
+  <dimension ref="A1:A3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G17" sqref="G17"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -350,6 +350,11 @@
         <v>2</v>
       </c>
     </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>3</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/QA32testgit.xlsx
+++ b/QA32testgit.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21231"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{039E9348-F53F-4D5B-8A22-6F0439B98BCC}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EBCF346C-C352-4825-AF61-A92763CBFA40}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -332,25 +332,28 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:A3"/>
+  <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1">
         <v>1</v>
       </c>
+      <c r="C1">
+        <v>1</v>
+      </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>3</v>
       </c>

--- a/QA32testgit.xlsx
+++ b/QA32testgit.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21231"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EBCF346C-C352-4825-AF61-A92763CBFA40}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D781F0E4-DEA0-4CB4-B06A-8328C8479259}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17,6 +17,14 @@
     </ext>
   </extLst>
 </workbook>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
+  <si>
+    <t>Branch1</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -335,7 +343,7 @@
   <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -352,6 +360,9 @@
       <c r="A2">
         <v>2</v>
       </c>
+      <c r="C2" t="s">
+        <v>0</v>
+      </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3">

--- a/QA32testgit.xlsx
+++ b/QA32testgit.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21231"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D781F0E4-DEA0-4CB4-B06A-8328C8479259}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39FECF8D-8F1C-482A-9E0A-D4CF503EA9AF}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,9 +20,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
   <si>
     <t>Branch1</t>
+  </si>
+  <si>
+    <t>Branch2</t>
   </si>
 </sst>
 </file>
@@ -343,7 +346,7 @@
   <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -368,6 +371,9 @@
       <c r="A3">
         <v>3</v>
       </c>
+      <c r="C3" t="s">
+        <v>1</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
